--- a/medicine/Enfance/Solange_Zitlenok/Solange_Zitlenok.xlsx
+++ b/medicine/Enfance/Solange_Zitlenok/Solange_Zitlenok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solange Zitlenok (épouse Loeb), né le 18 septembre 1919 à Nanterre et morte le 30 juillet 1980 à Saint-Cloud, est, durant la Seconde Guerre mondiale à Toulouse, responsable du Sud-Ouest pour le Réseau Garel.
 </t>
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Eva Solange Zitlenok naît le 18 septembre 1919 à Nanterre[1]. Elle est la fille de tbd zitlenok[2].
-Seconde Guerre mondiale
-Durant la Seconde Guerre mondiale à Toulouse, elle est responsable du Sud-Ouest, pour le Réseau Garel[3]. Elle a pour alias Solange Rémy[4] ou Araignée[5].
-La région Sud-Ouest, dirigée par Solange Zitlenok (dite Rémy, ou Araignée), couvrait la Haute-Garonne, les Hautes Pyrénées et Basses Pyrénées, le Tarn, le Tarn-et-Garonne, le Lot, le Lot-et-Garonne, le Gers, l’Hérault, l’Aveyron et la Lozère, avec 400 enfants[6],[7].
-Après la guerre
-Solange Zitlenok-Loeb meurt d’un cancer le 30 juillet 1980[8] à Saint-Cloud[1].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eva Solange Zitlenok naît le 18 septembre 1919 à Nanterre. Elle est la fille de tbd zitlenok.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solange_Zitlenok</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solange_Zitlenok</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale à Toulouse, elle est responsable du Sud-Ouest, pour le Réseau Garel. Elle a pour alias Solange Rémy ou Araignée.
+La région Sud-Ouest, dirigée par Solange Zitlenok (dite Rémy, ou Araignée), couvrait la Haute-Garonne, les Hautes Pyrénées et Basses Pyrénées, le Tarn, le Tarn-et-Garonne, le Lot, le Lot-et-Garonne, le Gers, l’Hérault, l’Aveyron et la Lozère, avec 400 enfants,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solange_Zitlenok</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solange_Zitlenok</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solange Zitlenok-Loeb meurt d’un cancer le 30 juillet 1980 à Saint-Cloud.
 </t>
         </is>
       </c>
